--- a/NRI_STLF_Data/WeatherData/T_shiraz/T_shiraz95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_shiraz/T_shiraz95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_shiraz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_shiraz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -239,12 +239,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -578,13 +578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -658,7 +658,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -738,7 +738,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -818,7 +818,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -898,7 +898,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -972,7 +972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12893,8 +12893,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>36</v>
+      </c>
+      <c r="G161">
+        <v>27</v>
+      </c>
+      <c r="H161">
+        <v>18</v>
+      </c>
+      <c r="I161">
+        <v>6</v>
+      </c>
+      <c r="J161">
+        <v>-3</v>
+      </c>
+      <c r="K161">
+        <v>-10</v>
+      </c>
+      <c r="L161">
+        <v>40</v>
+      </c>
+      <c r="M161">
+        <v>15</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1021</v>
+      </c>
+      <c r="P161">
+        <v>1017</v>
+      </c>
+      <c r="Q161">
+        <v>1003</v>
+      </c>
+      <c r="R161">
+        <v>14</v>
+      </c>
+      <c r="S161">
+        <v>13</v>
+      </c>
+      <c r="T161">
+        <v>10</v>
+      </c>
+      <c r="U161">
+        <v>19</v>
+      </c>
+      <c r="V161">
+        <v>3</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12910,8 +12970,65 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>36</v>
+      </c>
+      <c r="G162">
+        <v>27</v>
+      </c>
+      <c r="H162">
+        <v>18</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>-6</v>
+      </c>
+      <c r="K162">
+        <v>-14</v>
+      </c>
+      <c r="L162">
+        <v>35</v>
+      </c>
+      <c r="M162">
+        <v>12</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162">
+        <v>1020</v>
+      </c>
+      <c r="P162">
+        <v>1017</v>
+      </c>
+      <c r="Q162">
+        <v>1003</v>
+      </c>
+      <c r="R162">
+        <v>14</v>
+      </c>
+      <c r="S162">
+        <v>14</v>
+      </c>
+      <c r="T162">
+        <v>14</v>
+      </c>
+      <c r="U162">
+        <v>19</v>
+      </c>
+      <c r="V162">
+        <v>8</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -12927,8 +13044,65 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>36</v>
+      </c>
+      <c r="G163">
+        <v>28</v>
+      </c>
+      <c r="H163">
+        <v>19</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <v>-2</v>
+      </c>
+      <c r="K163">
+        <v>-9</v>
+      </c>
+      <c r="L163">
+        <v>33</v>
+      </c>
+      <c r="M163">
+        <v>14</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163">
+        <v>1020</v>
+      </c>
+      <c r="P163">
+        <v>1017</v>
+      </c>
+      <c r="Q163">
+        <v>1002</v>
+      </c>
+      <c r="R163">
+        <v>14</v>
+      </c>
+      <c r="S163">
+        <v>13</v>
+      </c>
+      <c r="T163">
+        <v>11</v>
+      </c>
+      <c r="U163">
+        <v>23</v>
+      </c>
+      <c r="V163">
+        <v>8</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -12944,8 +13118,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>36</v>
+      </c>
+      <c r="G164">
+        <v>27</v>
+      </c>
+      <c r="H164">
+        <v>19</v>
+      </c>
+      <c r="I164">
+        <v>6</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>-4</v>
+      </c>
+      <c r="L164">
+        <v>30</v>
+      </c>
+      <c r="M164">
+        <v>17</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164">
+        <v>1019</v>
+      </c>
+      <c r="P164">
+        <v>1016</v>
+      </c>
+      <c r="Q164">
+        <v>1002</v>
+      </c>
+      <c r="R164">
+        <v>14</v>
+      </c>
+      <c r="S164">
+        <v>11</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>14</v>
+      </c>
+      <c r="V164">
+        <v>5</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -12961,8 +13195,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>38</v>
+      </c>
+      <c r="G165">
+        <v>28</v>
+      </c>
+      <c r="H165">
+        <v>18</v>
+      </c>
+      <c r="I165">
+        <v>6</v>
+      </c>
+      <c r="J165">
+        <v>-1</v>
+      </c>
+      <c r="K165">
+        <v>-6</v>
+      </c>
+      <c r="L165">
+        <v>29</v>
+      </c>
+      <c r="M165">
+        <v>15</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165">
+        <v>1018</v>
+      </c>
+      <c r="P165">
+        <v>1014</v>
+      </c>
+      <c r="Q165">
+        <v>999</v>
+      </c>
+      <c r="R165">
+        <v>14</v>
+      </c>
+      <c r="S165">
+        <v>11</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>19</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>2</v>
+      </c>
+      <c r="AA165">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -12978,8 +13272,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>37</v>
+      </c>
+      <c r="G166">
+        <v>28</v>
+      </c>
+      <c r="H166">
+        <v>19</v>
+      </c>
+      <c r="I166">
+        <v>9</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>-5</v>
+      </c>
+      <c r="L166">
+        <v>46</v>
+      </c>
+      <c r="M166">
+        <v>19</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <v>1016</v>
+      </c>
+      <c r="P166">
+        <v>1013</v>
+      </c>
+      <c r="Q166">
+        <v>998</v>
+      </c>
+      <c r="R166">
+        <v>14</v>
+      </c>
+      <c r="S166">
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <v>8</v>
+      </c>
+      <c r="U166">
+        <v>14</v>
+      </c>
+      <c r="V166">
+        <v>5</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>2</v>
+      </c>
+      <c r="AA166">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -12995,8 +13349,71 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>37</v>
+      </c>
+      <c r="G167">
+        <v>29</v>
+      </c>
+      <c r="H167">
+        <v>21</v>
+      </c>
+      <c r="I167">
+        <v>7</v>
+      </c>
+      <c r="J167">
+        <v>3</v>
+      </c>
+      <c r="K167">
+        <v>-3</v>
+      </c>
+      <c r="L167">
+        <v>38</v>
+      </c>
+      <c r="M167">
+        <v>20</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167">
+        <v>1014</v>
+      </c>
+      <c r="P167">
+        <v>1012</v>
+      </c>
+      <c r="Q167">
+        <v>997</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>8</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>34</v>
+      </c>
+      <c r="V167">
+        <v>6</v>
+      </c>
+      <c r="W167">
+        <v>63</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>2</v>
+      </c>
+      <c r="AA167">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13012,8 +13429,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>37</v>
+      </c>
+      <c r="G168">
+        <v>28</v>
+      </c>
+      <c r="H168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13029,8 +13455,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>37</v>
+      </c>
+      <c r="G169">
+        <v>30</v>
+      </c>
+      <c r="H169">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13046,8 +13481,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>38</v>
+      </c>
+      <c r="G170">
+        <v>31</v>
+      </c>
+      <c r="H170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13063,8 +13507,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>38</v>
+      </c>
+      <c r="G171">
+        <v>30</v>
+      </c>
+      <c r="H171">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13080,8 +13533,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>38</v>
+      </c>
+      <c r="G172">
+        <v>29</v>
+      </c>
+      <c r="H172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13098,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13115,7 +13577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13132,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13149,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13166,7 +13628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13183,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13200,7 +13662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13217,7 +13679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13234,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13251,7 +13713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13268,7 +13730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13285,7 +13747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13302,7 +13764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13319,7 +13781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13336,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13353,7 +13815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13370,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13387,7 +13849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13404,7 +13866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13421,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13438,7 +13900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13455,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13472,7 +13934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13489,7 +13951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13506,7 +13968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13523,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13540,7 +14002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13557,7 +14019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13574,7 +14036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13591,7 +14053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13608,7 +14070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13625,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13642,7 +14104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13659,7 +14121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13676,7 +14138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13693,7 +14155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13710,7 +14172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13727,7 +14189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13744,7 +14206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13761,7 +14223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13778,7 +14240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13795,7 +14257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13812,7 +14274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13829,7 +14291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13846,7 +14308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13863,7 +14325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13880,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13897,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13914,7 +14376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -13931,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -13948,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -13965,7 +14427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -13982,7 +14444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -13999,7 +14461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14016,7 +14478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14033,7 +14495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14050,7 +14512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14067,7 +14529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14084,7 +14546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14101,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14118,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14135,7 +14597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14152,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14169,7 +14631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14186,7 +14648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14203,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14220,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14237,7 +14699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14254,7 +14716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14271,7 +14733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14288,7 +14750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14305,7 +14767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14322,7 +14784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14339,7 +14801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14356,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14373,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14390,7 +14852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14407,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14424,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14441,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14458,7 +14920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14475,7 +14937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14492,7 +14954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14509,7 +14971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14526,7 +14988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14543,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14560,7 +15022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14577,7 +15039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14594,7 +15056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14611,7 +15073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14628,7 +15090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14645,7 +15107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14662,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14679,7 +15141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14696,7 +15158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14713,7 +15175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14730,7 +15192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14747,7 +15209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14764,7 +15226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14781,7 +15243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14798,7 +15260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14815,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14832,7 +15294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14849,7 +15311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14866,7 +15328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14883,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14900,7 +15362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14917,7 +15379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -14934,7 +15396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -14951,7 +15413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -14968,7 +15430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -14985,7 +15447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15002,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15019,7 +15481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15036,7 +15498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15053,7 +15515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15070,7 +15532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15087,7 +15549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15104,7 +15566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15121,7 +15583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15138,7 +15600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15155,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15172,7 +15634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15189,7 +15651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15206,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15223,7 +15685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15240,7 +15702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15257,7 +15719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15274,7 +15736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15291,7 +15753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15308,7 +15770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15325,7 +15787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15342,7 +15804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15359,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15376,7 +15838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15393,7 +15855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15410,7 +15872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15427,7 +15889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15444,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15461,7 +15923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15478,7 +15940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15495,7 +15957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15512,7 +15974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15529,7 +15991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15546,7 +16008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15563,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15580,7 +16042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15597,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15614,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15631,7 +16093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15648,7 +16110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15665,7 +16127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15682,7 +16144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15699,7 +16161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15716,7 +16178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15733,7 +16195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15750,7 +16212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15767,7 +16229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15784,7 +16246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15801,7 +16263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15818,7 +16280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15835,7 +16297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15852,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15869,7 +16331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15886,7 +16348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15903,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15920,7 +16382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -15937,7 +16399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -15954,7 +16416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -15971,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -15988,7 +16450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16005,7 +16467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16022,7 +16484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16039,7 +16501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16056,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16073,7 +16535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16090,7 +16552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16107,7 +16569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16124,7 +16586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16141,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16158,7 +16620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16175,7 +16637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16192,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16209,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16226,7 +16688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16243,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16260,7 +16722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16277,7 +16739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16294,7 +16756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16311,7 +16773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16328,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16345,7 +16807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16362,7 +16824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16390,7 +16852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16402,7 +16864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
